--- a/biology/Médecine/Amplificateur_de_brillance/Amplificateur_de_brillance.xlsx
+++ b/biology/Médecine/Amplificateur_de_brillance/Amplificateur_de_brillance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un amplificateur de brillance, en électronique, est un système qui permet la détection de faibles intensités de lumière, voire la transformation d'une image optique en une image électronique. L'intérêt de l'amplificateur de brillance est d'augmenter la luminosité des images ainsi obtenues et surtout leur précision dans le domaine radiologique. Par extension, en médecine, on désigne par ce nom un appareil composé :
 - d'un arceau semi-circulaire portant à une extrémité un tube à rayons X, et à l'autre, un ensemble de détection composé d'un écran luminescent et du tube amplificateur de brillance, l'ensemble étant monté sur un bâti contenant également l'alimentation électrique,
@@ -515,7 +527,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un amplificateur de brillance est constitué d'un tube électronique. Ce tube électronique est soumis à une tension électrique.
 Un amplificateur de brillance est constitué de plusieurs écrans. Il va transformer une image constituée d'une luminescence faible, provenant des rayons X ayant frappé une substance luminescente. Pour cela une tension électrique est appliquée au tube qui a pour effet d'accélérer les électrons qui viennent bombarder un deuxième écran avec une énergie supplémentaire.
